--- a/Base de datos/Data in Excel/BD_Inventario_UG.xlsx
+++ b/Base de datos/Data in Excel/BD_Inventario_UG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23175" windowHeight="9075"/>
+    <workbookView windowWidth="23175" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="257">
   <si>
     <t>Objeto</t>
   </si>
@@ -196,13 +196,19 @@
     <t>Docencia</t>
   </si>
   <si>
-    <t>Muebles</t>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>Tutoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muebles </t>
   </si>
   <si>
     <t>Escritorios, mesas, sillas, bancos, sillones</t>
   </si>
   <si>
-    <t>Tutoria</t>
+    <t>Servicio administrativo</t>
   </si>
   <si>
     <t>Electrónica</t>
@@ -211,15 +217,9 @@
     <t>Computadoras, Cables, Impresoras</t>
   </si>
   <si>
-    <t>Servicio administrativo</t>
-  </si>
-  <si>
     <t>Investigación</t>
   </si>
   <si>
-    <t xml:space="preserve">Tubos de ensayo, fuentes de energía, osciloscopios, generador de funciones, multimetros, </t>
-  </si>
-  <si>
     <t>Deportes</t>
   </si>
   <si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>ID_Subdivision</t>
+  </si>
+  <si>
+    <t>Niguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninguna </t>
   </si>
   <si>
     <t>Toda clase de computadoras</t>
@@ -787,8 +793,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
@@ -822,8 +828,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,19 +850,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -867,9 +865,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,8 +895,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,53 +920,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,9 +935,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -975,19 +981,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,37 +1017,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,25 +1041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,7 +1065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,7 +1077,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,55 +1161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,16 +1194,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,26 +1238,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,139 +1277,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1412,7 +1418,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1450,11 +1456,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1775,7 +1781,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:O87"/>
+  <dimension ref="B2:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1786,12 +1792,12 @@
     <col min="1" max="1" width="2.14166666666667" customWidth="1"/>
     <col min="2" max="2" width="15.5666666666667" customWidth="1"/>
     <col min="3" max="3" width="13.1416666666667" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="21.5666666666667" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="26.75" customWidth="1"/>
+    <col min="6" max="6" width="26.7083333333333" customWidth="1"/>
     <col min="7" max="7" width="17.2833333333333" customWidth="1"/>
     <col min="8" max="8" width="14.8583333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="22.1416666666667" customWidth="1"/>
     <col min="10" max="10" width="15.5666666666667" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
@@ -1847,7 +1853,7 @@
       <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2260,7 +2266,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:8">
       <c r="B18" s="3">
         <v>1</v>
       </c>
@@ -2271,34 +2277,29 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="3">
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -2311,17 +2312,17 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="5"/>
       <c r="F20" s="3">
         <v>3</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -2334,7 +2335,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" s="3">
@@ -2496,7 +2497,6 @@
       <c r="E30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="3"/>
       <c r="G30" t="s">
         <v>85</v>
       </c>
@@ -2515,63 +2515,56 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:10">
       <c r="B31" s="3">
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
       <c r="G31" s="3">
         <v>1</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" t="s">
         <v>87</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="J31" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="3">
         <v>2</v>
       </c>
       <c r="C32" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>88</v>
+      </c>
       <c r="G32" s="3">
         <v>2</v>
       </c>
       <c r="H32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -2584,26 +2577,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>92</v>
+      </c>
       <c r="G33" s="3">
         <v>3</v>
       </c>
       <c r="H33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -2616,26 +2608,25 @@
         <v>4</v>
       </c>
       <c r="C34" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="5"/>
+        <v>96</v>
+      </c>
       <c r="G34" s="3">
         <v>4</v>
       </c>
       <c r="H34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -2643,95 +2634,92 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" ht="15" customHeight="1" spans="2:15">
       <c r="B35" s="3">
         <v>5</v>
       </c>
       <c r="C35" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="5"/>
+        <v>100</v>
+      </c>
       <c r="G35" s="3">
         <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-    </row>
-    <row r="36" spans="2:15">
+        <v>2</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" ht="19.5" customHeight="1" spans="2:15">
       <c r="B36" s="3">
         <v>6</v>
       </c>
       <c r="C36" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="5"/>
+        <v>104</v>
+      </c>
       <c r="G36" s="3">
         <v>6</v>
       </c>
       <c r="H36" s="3">
         <v>2</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
+      <c r="I36" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="3">
         <v>7</v>
       </c>
       <c r="C37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="5"/>
+        <v>108</v>
+      </c>
       <c r="G37" s="3">
         <v>7</v>
       </c>
       <c r="H37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -2744,26 +2732,25 @@
         <v>8</v>
       </c>
       <c r="C38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="5"/>
+        <v>112</v>
+      </c>
       <c r="G38" s="3">
         <v>8</v>
       </c>
       <c r="H38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -2776,26 +2763,25 @@
         <v>9</v>
       </c>
       <c r="C39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="5"/>
+        <v>116</v>
+      </c>
       <c r="G39" s="3">
         <v>9</v>
       </c>
       <c r="H39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -2808,26 +2794,25 @@
         <v>10</v>
       </c>
       <c r="C40" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="5"/>
+        <v>120</v>
+      </c>
       <c r="G40" s="3">
         <v>10</v>
       </c>
       <c r="H40" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -2840,15 +2825,14 @@
         <v>11</v>
       </c>
       <c r="C41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" s="5"/>
+        <v>124</v>
+      </c>
       <c r="G41" s="3">
         <v>11</v>
       </c>
@@ -2856,10 +2840,10 @@
         <v>12</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -2872,26 +2856,25 @@
         <v>12</v>
       </c>
       <c r="C42" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="5"/>
+        <v>128</v>
+      </c>
       <c r="G42" s="3">
         <v>12</v>
       </c>
       <c r="H42" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -2904,26 +2887,25 @@
         <v>13</v>
       </c>
       <c r="C43" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F43" s="5"/>
+        <v>132</v>
+      </c>
       <c r="G43" s="3">
         <v>13</v>
       </c>
       <c r="H43" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -2936,26 +2918,25 @@
         <v>14</v>
       </c>
       <c r="C44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" s="5"/>
+        <v>136</v>
+      </c>
       <c r="G44" s="3">
         <v>14</v>
       </c>
       <c r="H44" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -2968,26 +2949,25 @@
         <v>15</v>
       </c>
       <c r="C45" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="5"/>
+        <v>140</v>
+      </c>
       <c r="G45" s="3">
         <v>15</v>
       </c>
       <c r="H45" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -3000,26 +2980,25 @@
         <v>16</v>
       </c>
       <c r="C46" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="5"/>
+        <v>144</v>
+      </c>
       <c r="G46" s="3">
         <v>16</v>
       </c>
       <c r="H46" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -3032,26 +3011,25 @@
         <v>17</v>
       </c>
       <c r="C47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="5"/>
+        <v>148</v>
+      </c>
       <c r="G47" s="3">
         <v>17</v>
       </c>
       <c r="H47" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -3064,26 +3042,25 @@
         <v>18</v>
       </c>
       <c r="C48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="5"/>
+        <v>152</v>
+      </c>
       <c r="G48" s="3">
         <v>18</v>
       </c>
       <c r="H48" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -3096,26 +3073,25 @@
         <v>19</v>
       </c>
       <c r="C49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49" s="5"/>
+        <v>156</v>
+      </c>
       <c r="G49" s="3">
         <v>19</v>
       </c>
       <c r="H49" s="3">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -3128,26 +3104,25 @@
         <v>20</v>
       </c>
       <c r="C50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F50" s="5"/>
+        <v>160</v>
+      </c>
       <c r="G50" s="3">
         <v>20</v>
       </c>
       <c r="H50" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I50" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -3160,26 +3135,25 @@
         <v>21</v>
       </c>
       <c r="C51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F51" s="5"/>
+        <v>163</v>
+      </c>
       <c r="G51" s="3">
         <v>21</v>
       </c>
       <c r="H51" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -3195,23 +3169,22 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F52" s="5"/>
+        <v>167</v>
+      </c>
       <c r="G52" s="3">
         <v>22</v>
       </c>
       <c r="H52" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -3226,24 +3199,23 @@
       <c r="C53" s="3">
         <v>3</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>172</v>
+      <c r="D53" t="s">
+        <v>170</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F53" s="5"/>
+        <v>171</v>
+      </c>
       <c r="G53" s="3">
         <v>23</v>
       </c>
       <c r="H53" s="3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -3256,26 +3228,25 @@
         <v>24</v>
       </c>
       <c r="C54" s="3">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>176</v>
+        <v>3</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F54" s="5"/>
+        <v>175</v>
+      </c>
       <c r="G54" s="3">
         <v>24</v>
       </c>
       <c r="H54" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -3288,26 +3259,25 @@
         <v>25</v>
       </c>
       <c r="C55" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F55" s="5"/>
+        <v>179</v>
+      </c>
       <c r="G55" s="3">
         <v>25</v>
       </c>
       <c r="H55" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -3320,26 +3290,25 @@
         <v>26</v>
       </c>
       <c r="C56" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F56" s="5"/>
+        <v>183</v>
+      </c>
       <c r="G56" s="3">
         <v>26</v>
       </c>
       <c r="H56" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -3352,15 +3321,14 @@
         <v>27</v>
       </c>
       <c r="C57" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F57" s="8"/>
+        <v>186</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="G57" s="3">
         <v>27</v>
       </c>
@@ -3368,10 +3336,10 @@
         <v>14</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -3384,26 +3352,25 @@
         <v>28</v>
       </c>
       <c r="C58" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F58" s="8"/>
+        <v>191</v>
+      </c>
       <c r="G58" s="3">
         <v>28</v>
       </c>
       <c r="H58" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -3416,26 +3383,25 @@
         <v>29</v>
       </c>
       <c r="C59" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F59" s="8"/>
+        <v>195</v>
+      </c>
       <c r="G59" s="3">
         <v>29</v>
       </c>
       <c r="H59" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -3443,7 +3409,19 @@
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="7:15">
+    <row r="60" spans="2:15">
+      <c r="B60" s="3">
+        <v>30</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="G60" s="3">
         <v>30</v>
       </c>
@@ -3467,7 +3445,7 @@
         <v>31</v>
       </c>
       <c r="H61" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>202</v>
@@ -3486,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="H62" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>204</v>
@@ -3524,13 +3502,13 @@
         <v>34</v>
       </c>
       <c r="H64" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>208</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
@@ -3546,10 +3524,10 @@
         <v>17</v>
       </c>
       <c r="I65" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
@@ -3562,7 +3540,7 @@
         <v>36</v>
       </c>
       <c r="H66" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>211</v>
@@ -3581,7 +3559,7 @@
         <v>37</v>
       </c>
       <c r="H67" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>213</v>
@@ -3619,7 +3597,7 @@
         <v>39</v>
       </c>
       <c r="H69" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>217</v>
@@ -3638,7 +3616,7 @@
         <v>40</v>
       </c>
       <c r="H70" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>219</v>
@@ -3676,7 +3654,7 @@
         <v>42</v>
       </c>
       <c r="H72" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>223</v>
@@ -3695,7 +3673,7 @@
         <v>43</v>
       </c>
       <c r="H73" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>225</v>
@@ -3714,7 +3692,7 @@
         <v>44</v>
       </c>
       <c r="H74" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>227</v>
@@ -3733,7 +3711,7 @@
         <v>45</v>
       </c>
       <c r="H75" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>229</v>
@@ -3752,7 +3730,7 @@
         <v>46</v>
       </c>
       <c r="H76" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>231</v>
@@ -3771,7 +3749,7 @@
         <v>47</v>
       </c>
       <c r="H77" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>233</v>
@@ -3790,7 +3768,7 @@
         <v>48</v>
       </c>
       <c r="H78" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>235</v>
@@ -3809,7 +3787,7 @@
         <v>49</v>
       </c>
       <c r="H79" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>237</v>
@@ -3828,7 +3806,7 @@
         <v>50</v>
       </c>
       <c r="H80" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>239</v>
@@ -3847,7 +3825,7 @@
         <v>51</v>
       </c>
       <c r="H81" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>241</v>
@@ -3866,7 +3844,7 @@
         <v>52</v>
       </c>
       <c r="H82" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>243</v>
@@ -3885,7 +3863,7 @@
         <v>53</v>
       </c>
       <c r="H83" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>245</v>
@@ -3904,7 +3882,7 @@
         <v>54</v>
       </c>
       <c r="H84" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>247</v>
@@ -3923,7 +3901,7 @@
         <v>55</v>
       </c>
       <c r="H85" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>249</v>
@@ -3942,7 +3920,7 @@
         <v>56</v>
       </c>
       <c r="H86" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>251</v>
@@ -3961,7 +3939,7 @@
         <v>57</v>
       </c>
       <c r="H87" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>253</v>
@@ -3975,18 +3953,35 @@
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
     </row>
+    <row r="88" spans="7:15">
+      <c r="G88" s="3">
+        <v>58</v>
+      </c>
+      <c r="H88" s="3">
+        <v>25</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="26">
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H18:M18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="H19:M19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:M20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="C22:D22"/>
@@ -4003,94 +3998,8 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="G29:J29"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="J30:O30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="J32:O32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="J40:O40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="J45:O45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="J53:O53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="J54:O54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="J55:O55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="J56:O56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="J57:O57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="J58:O58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="J59:O59"/>
-    <mergeCell ref="J60:O60"/>
-    <mergeCell ref="J61:O61"/>
-    <mergeCell ref="J62:O62"/>
-    <mergeCell ref="J63:O63"/>
-    <mergeCell ref="J64:O64"/>
-    <mergeCell ref="J65:O65"/>
-    <mergeCell ref="J66:O66"/>
-    <mergeCell ref="J67:O67"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="J73:O73"/>
-    <mergeCell ref="J74:O74"/>
-    <mergeCell ref="J75:O75"/>
-    <mergeCell ref="J76:O76"/>
-    <mergeCell ref="J77:O77"/>
-    <mergeCell ref="J78:O78"/>
-    <mergeCell ref="J79:O79"/>
-    <mergeCell ref="J80:O80"/>
-    <mergeCell ref="J81:O81"/>
-    <mergeCell ref="J82:O82"/>
-    <mergeCell ref="J83:O83"/>
-    <mergeCell ref="J84:O84"/>
-    <mergeCell ref="J85:O85"/>
-    <mergeCell ref="J86:O86"/>
-    <mergeCell ref="J87:O87"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
